--- a/app_info/anime.xlsx
+++ b/app_info/anime.xlsx
@@ -219,9 +219,6 @@
     <t>監督不行届</t>
   </si>
   <si>
-    <t>ミュータンタートルズ</t>
-  </si>
-  <si>
     <t>妖怪ウォッチ</t>
   </si>
   <si>
@@ -834,6 +831,10 @@
   </si>
   <si>
     <t>http://www.at-x.com/images/program/ffe4e1e3dd4079c85ddca429cb852fda.jpg</t>
+  </si>
+  <si>
+    <t>ミュータントタートルズ</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -935,8 +936,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="283">
+  <cellStyleXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1240,7 +1245,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="283">
+  <cellStyles count="287">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1382,6 +1387,8 @@
     <cellStyle name="ハイパーリンク" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="279" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="285" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1524,6 +1531,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="280" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="286" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1854,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1880,7 +1889,7 @@
     <row r="2" spans="1:11" ht="17" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1897,7 +1906,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
@@ -1912,7 +1921,7 @@
         <v>8</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1920,7 +1929,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1930,7 +1939,7 @@
         <v>mahouka.jpg</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="5" t="str">
         <f>"curl -o "&amp;F4&amp;" "&amp;G4</f>
@@ -1954,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1964,7 +1973,7 @@
         <v>kamigaminoitazura.jpg</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H68" si="1">"curl -o "&amp;F5&amp;" "&amp;G5</f>
@@ -1984,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1994,7 +2003,7 @@
         <v>mekakucity.jpg</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2014,17 +2023,17 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>corda.jpg</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2044,7 +2053,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -2054,7 +2063,7 @@
         <v>soreseka.jpg</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2074,7 +2083,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -2084,7 +2093,7 @@
         <v>captain-earth.jpg</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2104,7 +2113,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -2114,7 +2123,7 @@
         <v>nisekoi.jpg</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2134,17 +2143,17 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>matsutaro.jpg</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2161,20 +2170,20 @@
     </row>
     <row r="12" spans="1:11">
       <c r="B12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>cf-vanguard.jpg</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2194,17 +2203,17 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>dragon_kai.jpg</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2224,17 +2233,17 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>haikyu.jpg</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2254,17 +2263,17 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>yugioh-arcv.jpg</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2284,7 +2293,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -2294,7 +2303,7 @@
         <v>babysteps.jpg</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2314,7 +2323,7 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -2324,7 +2333,7 @@
         <v>diaace.jpg</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2344,17 +2353,17 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>happiness-precure.jpg</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2374,17 +2383,17 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>onepiece.jpg</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2404,17 +2413,17 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>gaimu.jpg</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2434,17 +2443,17 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>tqg.jpg</v>
       </c>
       <c r="G21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2464,7 +2473,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
@@ -2474,7 +2483,7 @@
         <v>gokukoku.jpg</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2491,20 +2500,20 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>lovelive.jpg</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2524,7 +2533,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
@@ -2534,7 +2543,7 @@
         <v>breakblade.jpg</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2554,7 +2563,7 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
@@ -2564,7 +2573,7 @@
         <v>oneweekfriends.jpg</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2584,7 +2593,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
@@ -2594,7 +2603,7 @@
         <v>gaworare.jpg</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2614,7 +2623,7 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
@@ -2624,7 +2633,7 @@
         <v>nobunaga.jpg</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2644,7 +2653,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E28" t="s">
         <v>31</v>
@@ -2654,7 +2663,7 @@
         <v>oreca_dracolle.jpg</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2674,7 +2683,7 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E29" t="s">
         <v>32</v>
@@ -2684,7 +2693,7 @@
         <v>herobank.jpg</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H29" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2704,7 +2713,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>
@@ -2714,7 +2723,7 @@
         <v>mangakasan.jpg</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H30" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2734,17 +2743,17 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
         <v>m3.jpg</v>
       </c>
       <c r="G31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2764,17 +2773,17 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
         <v>gigantshooter.jpg</v>
       </c>
       <c r="G32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H32" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2794,7 +2803,7 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -2804,7 +2813,7 @@
         <v>yowapeda.jpg</v>
       </c>
       <c r="G33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H33" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2824,7 +2833,7 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
         <v>37</v>
@@ -2834,7 +2843,7 @@
         <v>majinbone.jpg</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H34" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2854,7 +2863,7 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
@@ -2864,7 +2873,7 @@
         <v>black-bullet.jpg</v>
       </c>
       <c r="G35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H35" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2884,7 +2893,7 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
@@ -2894,7 +2903,7 @@
         <v>mahoushoujyotaisen.jpg</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H36" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2914,17 +2923,17 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
         <v>kenichi.jpg</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H37" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2944,17 +2953,17 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
         <v>souleaternot.jpg</v>
       </c>
       <c r="G38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H38" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2974,7 +2983,7 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
@@ -2984,7 +2993,7 @@
         <v>hxh.jpg</v>
       </c>
       <c r="G39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H39" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3004,7 +3013,7 @@
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
         <v>43</v>
@@ -3014,7 +3023,7 @@
         <v>gaist.jpg</v>
       </c>
       <c r="G40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H40" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3034,17 +3043,17 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
         <v>dw_avengers.jpg</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H41" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3064,17 +3073,17 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
         <v>kutsudaru.jpg</v>
       </c>
       <c r="G42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H42" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3094,7 +3103,7 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E43" t="s">
         <v>46</v>
@@ -3104,7 +3113,7 @@
         <v>ngnl.jpg</v>
       </c>
       <c r="G43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H43" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3124,7 +3133,7 @@
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E44" t="s">
         <v>47</v>
@@ -3134,7 +3143,7 @@
         <v>chaika.jpg</v>
       </c>
       <c r="G44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H44" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3154,7 +3163,7 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E45" t="s">
         <v>48</v>
@@ -3164,7 +3173,7 @@
         <v>daishogun.jpg</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H45" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3184,17 +3193,17 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
         <v>naruto.jpg</v>
       </c>
       <c r="G46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H46" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3214,17 +3223,17 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
         <v>pokemon.jpg</v>
       </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H47" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3244,7 +3253,7 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E48" t="s">
         <v>51</v>
@@ -3254,7 +3263,7 @@
         <v>escha-logy.jpg</v>
       </c>
       <c r="G48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H48" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3274,17 +3283,17 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
         <v>tamagotchi.jpg</v>
       </c>
       <c r="G49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H49" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3304,17 +3313,17 @@
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
         <v>gochiusa.jpg</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H50" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3334,17 +3343,17 @@
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
         <v>aikatsu.jpg</v>
       </c>
       <c r="G51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H51" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3364,7 +3373,7 @@
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E52" t="s">
         <v>55</v>
@@ -3374,7 +3383,7 @@
         <v>inuneko.jpg</v>
       </c>
       <c r="G52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H52" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3394,7 +3403,7 @@
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E53" t="s">
         <v>56</v>
@@ -3404,7 +3413,7 @@
         <v>bns.jpg</v>
       </c>
       <c r="G53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H53" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3424,7 +3433,7 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E54" t="s">
         <v>57</v>
@@ -3434,7 +3443,7 @@
         <v>kawaisou.jpg</v>
       </c>
       <c r="G54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H54" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3454,7 +3463,7 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E55" t="s">
         <v>58</v>
@@ -3464,7 +3473,7 @@
         <v>akuma-riddle.jpg</v>
       </c>
       <c r="G55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H55" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3484,7 +3493,7 @@
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E56" t="s">
         <v>59</v>
@@ -3494,7 +3503,7 @@
         <v>selector-wixoss.jpg</v>
       </c>
       <c r="G56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H56" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3514,7 +3523,7 @@
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E57" t="s">
         <v>60</v>
@@ -3524,7 +3533,7 @@
         <v>knightsofsidonia.jpg</v>
       </c>
       <c r="G57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H57" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3544,7 +3553,7 @@
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E58" t="s">
         <v>61</v>
@@ -3554,7 +3563,7 @@
         <v>pingpong.jpg</v>
       </c>
       <c r="G58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H58" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3571,20 +3580,20 @@
     </row>
     <row r="59" spans="2:10">
       <c r="B59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" t="s">
         <v>202</v>
       </c>
-      <c r="D59" t="s">
-        <v>203</v>
-      </c>
       <c r="E59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
         <v>nanana.jpg</v>
       </c>
       <c r="G59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H59" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3604,7 +3613,7 @@
         <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E60" t="s">
         <v>62</v>
@@ -3614,7 +3623,7 @@
         <v>kantoku.jpg</v>
       </c>
       <c r="G60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H60" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3631,20 +3640,20 @@
     </row>
     <row r="61" spans="2:10">
       <c r="B61" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="D61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
         <v>tmnt.jpg</v>
       </c>
       <c r="G61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H61" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3652,29 +3661,29 @@
       </c>
       <c r="I61" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{ tag_type: 'anime', tag: 'tmnt', name: 'ミュータンタートルズ', image_url: 'tmnt.jpg' },</v>
+        <v>{ tag_type: 'anime', tag: 'tmnt', name: 'ミュータントタートルズ', image_url: 'tmnt.jpg' },</v>
       </c>
       <c r="J61" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>{ search_word: 'ミュータンタートルズ', tag: 'tmnt' },</v>
+        <v>{ search_word: 'ミュータントタートルズ', tag: 'tmnt' },</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
         <v>youkai-watch.jpg</v>
       </c>
       <c r="G62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H62" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3691,20 +3700,20 @@
     </row>
     <row r="63" spans="2:10">
       <c r="B63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D63" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" t="s">
         <v>207</v>
       </c>
-      <c r="E63" t="s">
-        <v>208</v>
-      </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
         <v>mushishi.jpg</v>
       </c>
       <c r="G63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H63" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3721,20 +3730,20 @@
     </row>
     <row r="64" spans="2:10">
       <c r="B64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D64" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" t="s">
         <v>209</v>
       </c>
-      <c r="E64" t="s">
-        <v>210</v>
-      </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
         <v>jojo.jpg</v>
       </c>
       <c r="G64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H64" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3751,20 +3760,20 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" t="s">
         <v>211</v>
       </c>
-      <c r="E65" t="s">
-        <v>212</v>
-      </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
         <v>date-a-live.jpg</v>
       </c>
       <c r="G65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H65" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3781,20 +3790,20 @@
     </row>
     <row r="66" spans="2:10">
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
         <v>jewelpet.jpg</v>
       </c>
       <c r="G66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H66" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3811,20 +3820,20 @@
     </row>
     <row r="67" spans="2:10">
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
         <v>tenkaiknight.jpg</v>
       </c>
       <c r="G67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H67" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3841,20 +3850,20 @@
     </row>
     <row r="68" spans="2:10">
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="0"/>
         <v>prettyrhythm.jpg</v>
       </c>
       <c r="G68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H68" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3871,20 +3880,20 @@
     </row>
     <row r="69" spans="2:10">
       <c r="B69" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" t="s">
         <v>216</v>
       </c>
-      <c r="D69" t="s">
-        <v>217</v>
-      </c>
       <c r="E69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" ref="F69:F75" si="4">D69&amp;".jpg"</f>
         <v>fairytail.jpg</v>
       </c>
       <c r="G69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H69" s="5" t="str">
         <f t="shared" ref="H69:H75" si="5">"curl -o "&amp;F69&amp;" "&amp;G69</f>
@@ -3901,20 +3910,20 @@
     </row>
     <row r="70" spans="2:10">
       <c r="B70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="4"/>
         <v>kindaichi_r.jpg</v>
       </c>
       <c r="G70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H70" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3931,20 +3940,20 @@
     </row>
     <row r="71" spans="2:10">
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="4"/>
         <v>keroro.jpg</v>
       </c>
       <c r="G71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H71" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3961,20 +3970,20 @@
     </row>
     <row r="72" spans="2:10">
       <c r="B72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="4"/>
         <v>pacworld.jpg</v>
       </c>
       <c r="G72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H72" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3991,20 +4000,20 @@
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="4"/>
         <v>penguin.jpg</v>
       </c>
       <c r="G73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H73" s="5" t="str">
         <f t="shared" si="5"/>
@@ -4021,20 +4030,20 @@
     </row>
     <row r="74" spans="2:10">
       <c r="B74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="4"/>
         <v>seikoku.jpg</v>
       </c>
       <c r="G74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H74" s="5" t="str">
         <f t="shared" si="5"/>
@@ -4051,20 +4060,20 @@
     </row>
     <row r="75" spans="2:10">
       <c r="B75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="4"/>
         <v>conan.jpg</v>
       </c>
       <c r="G75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H75" s="5" t="str">
         <f t="shared" si="5"/>

--- a/app_info/anime.xlsx
+++ b/app_info/anime.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="259">
   <si>
     <t>Anime</t>
     <phoneticPr fontId="3"/>
@@ -737,10 +737,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>カードファイト ヴァンガード</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ドラゴンボール改</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -753,10 +749,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ハピネスチャージプリキュア</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ワンピース</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -834,6 +826,46 @@
   </si>
   <si>
     <t>ミュータントタートルズ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヴァンガード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プリキュア</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オレカバトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハンターハンター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ノーゲーム ノーライフ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"selector infected WIXOSS"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジョジョ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジュエルペット</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プリティリズム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"FAIRY TAIL"</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -936,7 +968,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="287">
+  <cellStyleXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1224,8 +1256,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1244,8 +1282,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="287">
+  <cellStyles count="293">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1389,6 +1428,9 @@
     <cellStyle name="ハイパーリンク" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1533,6 +1575,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="292" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1863,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D52" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E75" sqref="E4:E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2176,7 +2221,7 @@
         <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -2195,7 +2240,7 @@
       </c>
       <c r="J12" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>{ search_word: 'カードファイト ヴァンガード', tag: 'cf-vanguard' },</v>
+        <v>{ search_word: 'ヴァンガード', tag: 'cf-vanguard' },</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2206,7 +2251,7 @@
         <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -2236,7 +2281,7 @@
         <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -2266,7 +2311,7 @@
         <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -2356,7 +2401,7 @@
         <v>158</v>
       </c>
       <c r="E18" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -2375,7 +2420,7 @@
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>{ search_word: 'ハピネスチャージプリキュア', tag: 'happiness-precure' },</v>
+        <v>{ search_word: 'プリキュア', tag: 'happiness-precure' },</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -2386,7 +2431,7 @@
         <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -2416,7 +2461,7 @@
         <v>160</v>
       </c>
       <c r="E20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -2446,14 +2491,14 @@
         <v>161</v>
       </c>
       <c r="E21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>tqg.jpg</v>
       </c>
       <c r="G21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2506,7 +2551,7 @@
         <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -2656,7 +2701,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -2675,7 +2720,7 @@
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>{ search_word: 'オレカバトル＆ドラゴンコレクション', tag: 'oreca_dracolle' },</v>
+        <v>{ search_word: 'オレカバトル', tag: 'oreca_dracolle' },</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -2746,7 +2791,7 @@
         <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -2776,7 +2821,7 @@
         <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -2926,7 +2971,7 @@
         <v>179</v>
       </c>
       <c r="E37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -2956,7 +3001,7 @@
         <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -2986,7 +3031,7 @@
         <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -3005,7 +3050,7 @@
       </c>
       <c r="J39" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>{ search_word: 'HUNTER×HUNTER', tag: 'hxh' },</v>
+        <v>{ search_word: 'ハンターハンター', tag: 'hxh' },</v>
       </c>
     </row>
     <row r="40" spans="2:10">
@@ -3046,7 +3091,7 @@
         <v>183</v>
       </c>
       <c r="E41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -3076,7 +3121,7 @@
         <v>184</v>
       </c>
       <c r="E42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -3106,7 +3151,7 @@
         <v>185</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -3125,7 +3170,7 @@
       </c>
       <c r="J43" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>{ search_word: 'ノーゲーム・ノーライフ', tag: 'ngnl' },</v>
+        <v>{ search_word: 'ノーゲーム ノーライフ', tag: 'ngnl' },</v>
       </c>
     </row>
     <row r="44" spans="2:10">
@@ -3196,7 +3241,7 @@
         <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -3226,7 +3271,7 @@
         <v>189</v>
       </c>
       <c r="E47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -3286,7 +3331,7 @@
         <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -3316,7 +3361,7 @@
         <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -3346,7 +3391,7 @@
         <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -3495,8 +3540,8 @@
       <c r="D56" t="s">
         <v>198</v>
       </c>
-      <c r="E56" t="s">
-        <v>59</v>
+      <c r="E56" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -3515,7 +3560,7 @@
       </c>
       <c r="J56" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>{ search_word: 'selector infected WIXOSS', tag: 'selector-wixoss' },</v>
+        <v>{ search_word: '"selector infected WIXOSS"', tag: 'selector-wixoss' },</v>
       </c>
     </row>
     <row r="57" spans="2:10">
@@ -3640,20 +3685,20 @@
     </row>
     <row r="61" spans="2:10">
       <c r="B61" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D61" t="s">
         <v>204</v>
       </c>
       <c r="E61" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
         <v>tmnt.jpg</v>
       </c>
       <c r="G61" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H61" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3683,7 +3728,7 @@
         <v>youkai-watch.jpg</v>
       </c>
       <c r="G62" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H62" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3736,7 +3781,7 @@
         <v>208</v>
       </c>
       <c r="E64" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -3755,7 +3800,7 @@
       </c>
       <c r="J64" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>{ search_word: 'ジョジョの奇妙な冒険', tag: 'jojo' },</v>
+        <v>{ search_word: 'ジョジョ', tag: 'jojo' },</v>
       </c>
     </row>
     <row r="65" spans="2:10">
@@ -3773,7 +3818,7 @@
         <v>date-a-live.jpg</v>
       </c>
       <c r="G65" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H65" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3796,7 +3841,7 @@
         <v>212</v>
       </c>
       <c r="E66" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -3815,7 +3860,7 @@
       </c>
       <c r="J66" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>{ search_word: 'レディジュエルペット', tag: 'jewelpet' },</v>
+        <v>{ search_word: 'ジュエルペット', tag: 'jewelpet' },</v>
       </c>
     </row>
     <row r="67" spans="2:10">
@@ -3856,7 +3901,7 @@
         <v>214</v>
       </c>
       <c r="E68" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="0"/>
@@ -3875,7 +3920,7 @@
       </c>
       <c r="J68" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>{ search_word: 'プリティリズム・オールスターセレクション', tag: 'prettyrhythm' },</v>
+        <v>{ search_word: 'プリティリズム', tag: 'prettyrhythm' },</v>
       </c>
     </row>
     <row r="69" spans="2:10">
@@ -3885,8 +3930,8 @@
       <c r="D69" t="s">
         <v>216</v>
       </c>
-      <c r="E69" t="s">
-        <v>215</v>
+      <c r="E69" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" ref="F69:F75" si="4">D69&amp;".jpg"</f>
@@ -3905,7 +3950,7 @@
       </c>
       <c r="J69" s="5" t="str">
         <f t="shared" ref="J69:J75" si="7">"{ search_word: '"&amp;E69&amp;"', tag: '"&amp;D69&amp;"' },"</f>
-        <v>{ search_word: 'FAIRY TAIL', tag: 'fairytail' },</v>
+        <v>{ search_word: '"FAIRY TAIL"', tag: 'fairytail' },</v>
       </c>
     </row>
     <row r="70" spans="2:10">
@@ -3916,7 +3961,7 @@
         <v>217</v>
       </c>
       <c r="E70" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="4"/>
